--- a/results/yq_test/GHZ_cz/Rb2Re4/cz_2q_ghz_indep_qiskit_7.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/GHZ_cz/Rb2Re4/cz_2q_ghz_indep_qiskit_7.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001825094223022461</v>
+        <v>0.0005130767822265625</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002698898315429688</v>
+        <v>0.0003921985626220703</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.816055297851562e-05</v>
+        <v>0.00208282470703125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 0), (1, 1), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[2, 1], [1, 2], [1, 0], [1, 1], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -572,110 +572,120 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004227876663208008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.005305051803588867</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
